--- a/exel.xlsx
+++ b/exel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
   <si>
     <t>test</t>
   </si>
@@ -280,6 +280,16 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
